--- a/medicine/Enfance/Le_Roi_de_la_forêt_des_brumes/Le_Roi_de_la_forêt_des_brumes.xlsx
+++ b/medicine/Enfance/Le_Roi_de_la_forêt_des_brumes/Le_Roi_de_la_forêt_des_brumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Roi_de_la_for%C3%AAt_des_brumes</t>
+          <t>Le_Roi_de_la_forêt_des_brumes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Roi de la forêt des brumes (titre original : King of the Cloud Forest) est un roman jeunesse écrit par Michael Morpurgo et paru en 1987, illustré par François Place, qui raconte l'histoire personnelle de Ashley recueilli par des yétis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Roi_de_la_for%C3%AAt_des_brumes</t>
+          <t>Le_Roi_de_la_forêt_des_brumes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeune Ashley vit dans une mission en Chine avec son père, médecin anglais et chef de la mission. Lorsqu'éclate la guerre entre la Chine et le Japon en 1937, il est obligé de quitter la maison avec un moine tibétain, étant aussi l’assistant et ami de son père, oncle Sung, qui promet à son père de le ramener dans sa famille en Angleterre. Il part avec oncle Sung pour le Tibet.
 Le voyage est long et pénible. Ils sont obligés de se déguiser car Ashley, d’origine anglaise, est considéré comme un ennemi. Lors d’une halte, ils sont presque découverts et sont obligés de s’enfuir en abandonnant leur matériel. Une tempête de neige éclate et ils se retrouvent coincés plusieurs jours dans une cabane de berger, la nourriture commençant à manquer. Oncle Sung laisse Ashley dans la cabane pour aller chercher de la nourriture. Il ne revient pas.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Roi_de_la_for%C3%AAt_des_brumes</t>
+          <t>Le_Roi_de_la_forêt_des_brumes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Sorcières 1993, catégorie Roman</t>
         </is>
